--- a/3.results/model_selection/mouette_melanocephale_R_4_add_spatial_effects.xlsx
+++ b/3.results/model_selection/mouette_melanocephale_R_4_add_spatial_effects.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">...1</t>
   </si>
@@ -56,16 +56,10 @@
     <t xml:space="preserve">model</t>
   </si>
   <si>
-    <t xml:space="preserve">beta_log_bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_log_bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_SST</t>
+    <t xml:space="preserve">beta_mean_autumn_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_mean_autumn_SST</t>
   </si>
   <si>
     <t xml:space="preserve">without spatial</t>
@@ -487,31 +481,25 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.04</v>
+        <v>1.223</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>139.7</v>
+        <v>109.8</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.18</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0.5</v>
@@ -520,128 +508,116 @@
         <v>390</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>580</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>0.25</v>
+        <v>-1.26</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.197</v>
+        <v>1.1</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>54</v>
+        <v>33.9</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>0.25</v>
+        <v>-1.34</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="R3" s="1" t="n">
-        <v>0.67</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.451</v>
+        <v>2.561</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>31.5</v>
+        <v>49.2</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.51</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M4" s="1" t="n">
         <v>979</v>
@@ -650,39 +626,33 @@
         <v>3</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.16</v>
+        <v>-1.32</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>-1.49</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>0.78</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>7.718</v>
+        <v>6.603</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>26</v>
+        <v>26.7</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0.51</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>390</v>
@@ -694,28 +664,22 @@
         <v>970</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O5" s="1" t="n">
-        <v>0.27</v>
+        <v>-1.35</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>-1.42</v>
-      </c>
-      <c r="Q5" s="1" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +717,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>H2&lt;395</formula>
+      <formula>H2&lt;392</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
@@ -766,7 +730,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>I2&lt;585</formula>
+      <formula>I2&lt;581</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
@@ -779,7 +743,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>J2&lt;975</formula>
+      <formula>J2&lt;970</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
@@ -792,7 +756,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>K2&lt;393</formula>
+      <formula>K2&lt;390</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
@@ -805,7 +769,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>L2&lt;585</formula>
+      <formula>L2&lt;583</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M5">
@@ -818,7 +782,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>M2&lt;973</formula>
+      <formula>M2&lt;970</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
